--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>7/26-27/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -910,7 +919,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K116" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1239,12 +1248,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1416,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1417,7 +1426,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.5</v>
+        <v>41</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3062,79 +3071,105 @@
       <c r="A86" s="24">
         <v>45200</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="12"/>
       <c r="E86" s="9"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="12"/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="12">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="39">
+        <v>45201</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
-        <v>45231</v>
-      </c>
-      <c r="B87" s="12"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C87" s="14"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="12"/>
+      <c r="F87" s="21"/>
       <c r="G87" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="12"/>
+      <c r="H87" s="40">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="K87" s="39">
+        <v>45230</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>45261</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="14"/>
+        <v>45231</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="12"/>
       <c r="E88" s="9"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="12"/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="12">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="39">
+        <v>45238</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
-        <v>45292</v>
-      </c>
-      <c r="B89" s="12"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C89" s="14"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="12"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="40">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="39">
+        <v>45247</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B90" s="12"/>
+        <v>45261</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C90" s="14"/>
       <c r="D90" s="12"/>
       <c r="E90" s="9"/>
@@ -3143,68 +3178,71 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="12">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="39">
+        <v>45271</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
-        <v>45352</v>
-      </c>
-      <c r="B91" s="12"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C91" s="14"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G91" s="14"/>
       <c r="H91" s="12"/>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="39">
+        <v>45278</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
-        <v>45383</v>
-      </c>
-      <c r="B92" s="12"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="C92" s="14"/>
-      <c r="D92" s="12"/>
+      <c r="D92" s="12">
+        <v>3</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G92" s="14"/>
       <c r="H92" s="12"/>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="K92" s="39" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="24">
-        <v>45413</v>
+      <c r="A93" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="9"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G93" s="14"/>
       <c r="H93" s="12"/>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3222,7 +3260,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3240,7 +3278,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3258,7 +3296,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3276,7 +3314,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3294,7 +3332,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -3312,31 +3350,31 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45627</v>
-      </c>
-      <c r="B100" s="13"/>
+        <v>45474</v>
+      </c>
+      <c r="B100" s="12"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="13"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="16"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45658</v>
-      </c>
-      <c r="B101" s="13"/>
+        <v>45505</v>
+      </c>
+      <c r="B101" s="12"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="13"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3348,13 +3386,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45689</v>
-      </c>
-      <c r="B102" s="13"/>
+        <v>45536</v>
+      </c>
+      <c r="B102" s="12"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="13"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="12"/>
       <c r="G102" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3366,13 +3404,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>45717</v>
-      </c>
-      <c r="B103" s="13"/>
+        <v>45566</v>
+      </c>
+      <c r="B103" s="12"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="13"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="12"/>
       <c r="G103" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3384,13 +3422,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>45748</v>
-      </c>
-      <c r="B104" s="13"/>
+        <v>45597</v>
+      </c>
+      <c r="B104" s="12"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="13"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3402,7 +3440,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3413,14 +3451,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3438,7 +3476,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3456,7 +3494,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3474,7 +3512,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3492,7 +3530,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3510,7 +3548,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="14"/>
@@ -3521,20 +3559,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="13"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="16"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="21"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>45992</v>
-      </c>
-      <c r="B112" s="12"/>
+        <v>45839</v>
+      </c>
+      <c r="B112" s="13"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="12"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3545,12 +3583,14 @@
       <c r="K112" s="21"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="24">
+        <v>45870</v>
+      </c>
+      <c r="B113" s="13"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="12"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3561,12 +3601,14 @@
       <c r="K113" s="21"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="24">
+        <v>45901</v>
+      </c>
+      <c r="B114" s="13"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="12"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3577,12 +3619,14 @@
       <c r="K114" s="21"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="24">
+        <v>45931</v>
+      </c>
+      <c r="B115" s="13"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="12"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3593,7 +3637,9 @@
       <c r="K115" s="21"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
+      <c r="A116" s="24">
+        <v>45962</v>
+      </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
       <c r="D116" s="13"/>
@@ -3607,6 +3653,88 @@
       <c r="I116" s="10"/>
       <c r="J116" s="13"/>
       <c r="K116" s="16"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
+        <v>45992</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="12"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="21"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="12"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="21"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
